--- a/Template/Export/Sari_Cases_15.xlsx
+++ b/Template/Export/Sari_Cases_15.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="245">
   <si>
     <t>id_pahoflu</t>
   </si>
@@ -750,12 +750,21 @@
   </si>
   <si>
     <t>Grupo_Genético_3</t>
+  </si>
+  <si>
+    <t>UCI</t>
+  </si>
+  <si>
+    <t>identificador_muestra</t>
+  </si>
+  <si>
+    <t>temperatura_muestra</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="dd/mmm/yyyy;@"/>
     <numFmt numFmtId="165" formatCode="[$-40A]dd/mmm/yyyy;@"/>
@@ -1190,7 +1199,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:IH39"/>
+  <dimension ref="A1:IK39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1321,81 +1330,83 @@
     <col min="138" max="138" width="20.5" style="7" customWidth="1"/>
     <col min="139" max="139" width="11.875" style="5" bestFit="1" customWidth="1"/>
     <col min="140" max="140" width="17" style="6" bestFit="1" customWidth="1"/>
-    <col min="141" max="141" width="17.75" style="6" bestFit="1" customWidth="1"/>
-    <col min="142" max="142" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="143" max="143" width="17.75" style="6" bestFit="1" customWidth="1"/>
-    <col min="144" max="144" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="145" max="145" width="17.25" style="6" customWidth="1"/>
-    <col min="146" max="146" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="147" max="147" width="28.875" customWidth="1"/>
-    <col min="148" max="148" width="19.625" bestFit="1" customWidth="1"/>
-    <col min="149" max="150" width="19.625" customWidth="1"/>
-    <col min="151" max="151" width="30.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="152" max="152" width="12.75" style="5" bestFit="1" customWidth="1"/>
-    <col min="153" max="153" width="18.625" style="5" bestFit="1" customWidth="1"/>
-    <col min="154" max="154" width="22.125" bestFit="1" customWidth="1"/>
-    <col min="155" max="155" width="18.875" style="6" bestFit="1" customWidth="1"/>
-    <col min="156" max="156" width="14.75" bestFit="1" customWidth="1"/>
-    <col min="157" max="157" width="17.75" style="6" bestFit="1" customWidth="1"/>
-    <col min="158" max="158" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="159" max="159" width="28.875" customWidth="1"/>
-    <col min="160" max="160" width="19.625" style="6" bestFit="1" customWidth="1"/>
-    <col min="161" max="161" width="19.625" customWidth="1"/>
-    <col min="162" max="162" width="16.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="163" max="163" width="16.75" style="5" bestFit="1" customWidth="1"/>
-    <col min="164" max="164" width="19.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="165" max="165" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="166" max="166" width="17.75" style="9" bestFit="1" customWidth="1"/>
-    <col min="167" max="167" width="16.25" bestFit="1" customWidth="1"/>
-    <col min="168" max="168" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="169" max="169" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="170" max="170" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="171" max="171" width="17.125" style="9" customWidth="1"/>
-    <col min="172" max="172" width="16.25" bestFit="1" customWidth="1"/>
-    <col min="173" max="173" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="174" max="174" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="175" max="175" width="17.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="176" max="176" width="17.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="177" max="177" width="18.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="178" max="178" width="20.75" style="5" bestFit="1" customWidth="1"/>
-    <col min="179" max="179" width="26.875" bestFit="1" customWidth="1"/>
-    <col min="180" max="180" width="18.875" bestFit="1" customWidth="1"/>
-    <col min="181" max="181" width="19.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="182" max="182" width="19.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="183" max="183" width="23.25" bestFit="1" customWidth="1"/>
-    <col min="184" max="184" width="19.875" bestFit="1" customWidth="1"/>
-    <col min="185" max="185" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="186" max="186" width="18.25" bestFit="1" customWidth="1"/>
-    <col min="187" max="187" width="16" bestFit="1" customWidth="1"/>
-    <col min="188" max="188" width="17.375" customWidth="1"/>
-    <col min="189" max="189" width="20.75" bestFit="1" customWidth="1"/>
-    <col min="190" max="190" width="26.875" bestFit="1" customWidth="1"/>
-    <col min="191" max="191" width="13.375" customWidth="1"/>
-    <col min="192" max="192" width="18.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="193" max="193" width="18.375" style="6" customWidth="1"/>
-    <col min="194" max="194" width="23.25" bestFit="1" customWidth="1"/>
-    <col min="202" max="202" width="13.625" customWidth="1"/>
-    <col min="203" max="203" width="17" style="6" bestFit="1" customWidth="1"/>
-    <col min="204" max="204" width="19.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="207" max="207" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="208" max="208" width="18.25" bestFit="1" customWidth="1"/>
-    <col min="209" max="209" width="16" bestFit="1" customWidth="1"/>
-    <col min="210" max="210" width="14.25" customWidth="1"/>
-    <col min="211" max="211" width="20.75" bestFit="1" customWidth="1"/>
-    <col min="212" max="212" width="26.875" bestFit="1" customWidth="1"/>
-    <col min="213" max="213" width="13.5" customWidth="1"/>
-    <col min="214" max="214" width="19.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="215" max="215" width="19.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="216" max="216" width="23.25" bestFit="1" customWidth="1"/>
-    <col min="217" max="217" width="19.875" bestFit="1" customWidth="1"/>
-    <col min="218" max="218" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="224" max="224" width="13.5" customWidth="1"/>
-    <col min="235" max="235" width="12.875" customWidth="1"/>
-    <col min="241" max="241" width="18.25" bestFit="1" customWidth="1"/>
-    <col min="242" max="242" width="16" bestFit="1" customWidth="1"/>
+    <col min="141" max="141" width="6.375" style="6" customWidth="1"/>
+    <col min="142" max="142" width="18.875" style="6" customWidth="1"/>
+    <col min="143" max="143" width="7" bestFit="1" customWidth="1"/>
+    <col min="144" max="144" width="18.875" style="6" customWidth="1"/>
+    <col min="145" max="145" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="146" max="146" width="17.25" style="6" customWidth="1"/>
+    <col min="147" max="147" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="148" max="148" width="28.875" customWidth="1"/>
+    <col min="149" max="149" width="19.625" bestFit="1" customWidth="1"/>
+    <col min="150" max="151" width="19.625" customWidth="1"/>
+    <col min="152" max="152" width="30.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="153" max="153" width="12.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="154" max="154" width="18.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="155" max="155" width="22.125" bestFit="1" customWidth="1"/>
+    <col min="156" max="156" width="18.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="157" max="157" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="158" max="158" width="17.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="159" max="159" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="160" max="161" width="20.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="162" max="162" width="28.875" customWidth="1"/>
+    <col min="163" max="163" width="19.625" style="6" bestFit="1" customWidth="1"/>
+    <col min="164" max="164" width="19.625" customWidth="1"/>
+    <col min="165" max="165" width="16.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="166" max="166" width="16.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="167" max="167" width="19.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="168" max="168" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="169" max="169" width="17.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="170" max="170" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="171" max="171" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="172" max="172" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="173" max="173" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="174" max="174" width="17.125" style="9" customWidth="1"/>
+    <col min="175" max="175" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="176" max="176" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="177" max="177" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="178" max="178" width="17.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="179" max="179" width="17.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="180" max="180" width="18.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="181" max="181" width="20.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="182" max="182" width="26.875" bestFit="1" customWidth="1"/>
+    <col min="183" max="183" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="184" max="184" width="19.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="185" max="185" width="19.375" style="6" bestFit="1" customWidth="1"/>
+    <col min="186" max="186" width="23.25" bestFit="1" customWidth="1"/>
+    <col min="187" max="187" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="188" max="188" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="189" max="189" width="18.25" bestFit="1" customWidth="1"/>
+    <col min="190" max="190" width="16" bestFit="1" customWidth="1"/>
+    <col min="191" max="191" width="17.375" customWidth="1"/>
+    <col min="192" max="192" width="20.75" bestFit="1" customWidth="1"/>
+    <col min="193" max="193" width="26.875" bestFit="1" customWidth="1"/>
+    <col min="194" max="194" width="13.375" customWidth="1"/>
+    <col min="195" max="195" width="18.375" style="6" bestFit="1" customWidth="1"/>
+    <col min="196" max="196" width="18.375" style="6" customWidth="1"/>
+    <col min="197" max="197" width="23.25" bestFit="1" customWidth="1"/>
+    <col min="205" max="205" width="13.625" customWidth="1"/>
+    <col min="206" max="206" width="17" style="6" bestFit="1" customWidth="1"/>
+    <col min="207" max="207" width="19.375" style="6" bestFit="1" customWidth="1"/>
+    <col min="210" max="210" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="211" max="211" width="18.25" bestFit="1" customWidth="1"/>
+    <col min="212" max="212" width="16" bestFit="1" customWidth="1"/>
+    <col min="213" max="213" width="14.25" customWidth="1"/>
+    <col min="214" max="214" width="20.75" bestFit="1" customWidth="1"/>
+    <col min="215" max="215" width="26.875" bestFit="1" customWidth="1"/>
+    <col min="216" max="216" width="13.5" customWidth="1"/>
+    <col min="217" max="217" width="19.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="218" max="218" width="19.375" style="6" bestFit="1" customWidth="1"/>
+    <col min="219" max="219" width="23.25" bestFit="1" customWidth="1"/>
+    <col min="220" max="220" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="221" max="221" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="227" max="227" width="13.5" customWidth="1"/>
+    <col min="238" max="238" width="12.875" customWidth="1"/>
+    <col min="244" max="244" width="18.25" bestFit="1" customWidth="1"/>
+    <col min="245" max="245" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:242" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:245" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1817,539 +1828,548 @@
         <v>139</v>
       </c>
       <c r="EK1" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="EL1" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="EL1" s="10" t="s">
+      <c r="EM1" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="EM1" s="15" t="s">
+      <c r="EN1" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="EN1" s="10" t="s">
+      <c r="EO1" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="EO1" s="15" t="s">
+      <c r="EP1" s="15" t="s">
         <v>234</v>
       </c>
-      <c r="EP1" s="10" t="s">
+      <c r="EQ1" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="EQ1" s="10" t="s">
+      <c r="ER1" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="ER1" s="10" t="s">
+      <c r="ES1" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="ES1" s="10" t="s">
+      <c r="ET1" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="ET1" s="10" t="s">
+      <c r="EU1" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="EU1" s="10" t="s">
+      <c r="EV1" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="EV1" s="17" t="s">
+      <c r="EW1" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="EW1" s="10" t="s">
+      <c r="EX1" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="EX1" s="10" t="s">
+      <c r="EY1" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="EY1" s="15" t="s">
+      <c r="EZ1" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="EZ1" s="19" t="s">
+      <c r="FA1" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="FA1" s="15" t="s">
+      <c r="FB1" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="FB1" s="10" t="s">
+      <c r="FC1" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="FC1" s="10" t="s">
+      <c r="FD1" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="FE1" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="FF1" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="FD1" s="15" t="s">
+      <c r="FG1" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="FE1" s="16" t="s">
+      <c r="FH1" s="16" t="s">
         <v>159</v>
       </c>
-      <c r="FF1" s="10" t="s">
+      <c r="FI1" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="FG1" s="10" t="s">
+      <c r="FJ1" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="FH1" s="10" t="s">
+      <c r="FK1" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="FI1" s="10" t="s">
+      <c r="FL1" s="10" t="s">
         <v>238</v>
       </c>
-      <c r="FJ1" s="10" t="s">
+      <c r="FM1" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="FK1" s="10" t="s">
+      <c r="FN1" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="FL1" s="10" t="s">
+      <c r="FO1" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="FM1" s="10" t="s">
+      <c r="FP1" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="FN1" s="10" t="s">
+      <c r="FQ1" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="FO1" s="10" t="s">
+      <c r="FR1" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="FP1" s="10" t="s">
+      <c r="FS1" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="FQ1" s="10" t="s">
+      <c r="FT1" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="FR1" s="10" t="s">
+      <c r="FU1" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="FS1" s="10" t="s">
+      <c r="FV1" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="FT1" s="10" t="s">
+      <c r="FW1" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="FU1" s="10" t="s">
+      <c r="FX1" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="FV1" s="10" t="s">
+      <c r="FY1" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="FW1" s="10" t="s">
+      <c r="FZ1" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="FX1" s="16" t="s">
+      <c r="GA1" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="FY1" s="15" t="s">
+      <c r="GB1" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="FZ1" s="15" t="s">
+      <c r="GC1" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="GA1" s="10" t="s">
+      <c r="GD1" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="GB1" s="10" t="s">
+      <c r="GE1" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="GC1" s="10" t="s">
+      <c r="GF1" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="GD1" s="10" t="s">
+      <c r="GG1" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="GE1" s="10" t="s">
+      <c r="GH1" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="GF1" s="10" t="s">
+      <c r="GI1" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="GG1" s="10" t="s">
+      <c r="GJ1" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="GH1" s="10" t="s">
+      <c r="GK1" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="GI1" s="16" t="s">
+      <c r="GL1" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="GJ1" s="15" t="s">
+      <c r="GM1" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="GK1" s="15" t="s">
+      <c r="GN1" s="15" t="s">
         <v>184</v>
       </c>
-      <c r="GL1" s="10" t="s">
+      <c r="GO1" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="GM1" s="10" t="s">
+      <c r="GP1" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="GN1" s="10" t="s">
+      <c r="GQ1" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="GO1" s="10" t="s">
+      <c r="GR1" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="GP1" s="10" t="s">
+      <c r="GS1" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="GQ1" s="10" t="s">
+      <c r="GT1" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="GR1" s="10" t="s">
+      <c r="GU1" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="GS1" s="10" t="s">
+      <c r="GV1" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="GT1" s="16" t="s">
+      <c r="GW1" s="16" t="s">
         <v>193</v>
       </c>
-      <c r="GU1" s="11" t="s">
+      <c r="GX1" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="GV1" s="11" t="s">
+      <c r="GY1" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="GW1" s="10" t="s">
+      <c r="GZ1" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="GX1" s="10" t="s">
+      <c r="HA1" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="GY1" s="10" t="s">
+      <c r="HB1" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="GZ1" s="10" t="s">
+      <c r="HC1" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="HA1" s="10" t="s">
+      <c r="HD1" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="HB1" s="10" t="s">
+      <c r="HE1" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="HC1" s="10" t="s">
+      <c r="HF1" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="HD1" s="10" t="s">
+      <c r="HG1" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="HE1" s="16" t="s">
+      <c r="HH1" s="16" t="s">
         <v>204</v>
       </c>
-      <c r="HF1" s="11" t="s">
+      <c r="HI1" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="HG1" s="11" t="s">
+      <c r="HJ1" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="HH1" s="10" t="s">
+      <c r="HK1" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="HI1" s="10" t="s">
+      <c r="HL1" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="HJ1" s="10" t="s">
+      <c r="HM1" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="HK1" s="10" t="s">
+      <c r="HN1" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="HL1" s="10" t="s">
+      <c r="HO1" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="HM1" s="10" t="s">
+      <c r="HP1" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="HN1" s="10" t="s">
+      <c r="HQ1" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="HO1" s="10" t="s">
+      <c r="HR1" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="HP1" s="16" t="s">
+      <c r="HS1" s="16" t="s">
         <v>215</v>
       </c>
-      <c r="HQ1" s="11" t="s">
+      <c r="HT1" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="HR1" s="11" t="s">
+      <c r="HU1" s="11" t="s">
         <v>217</v>
       </c>
-      <c r="HS1" s="10" t="s">
+      <c r="HV1" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="HT1" s="10" t="s">
+      <c r="HW1" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="HU1" s="10" t="s">
+      <c r="HX1" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="HV1" s="10" t="s">
+      <c r="HY1" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="HW1" s="10" t="s">
+      <c r="HZ1" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="HX1" s="10" t="s">
+      <c r="IA1" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="HY1" s="10" t="s">
+      <c r="IB1" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="HZ1" s="10" t="s">
+      <c r="IC1" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="IA1" s="16" t="s">
+      <c r="ID1" s="16" t="s">
         <v>226</v>
       </c>
-      <c r="IB1" s="11" t="s">
+      <c r="IE1" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="IC1" s="11" t="s">
+      <c r="IF1" s="11" t="s">
         <v>228</v>
       </c>
-      <c r="ID1" s="10" t="s">
+      <c r="IG1" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="IE1" s="10" t="s">
+      <c r="IH1" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="IF1" s="10" t="s">
+      <c r="II1" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="IG1" s="10" t="s">
+      <c r="IJ1" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="IH1" s="10" t="s">
+      <c r="IK1" s="10" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="2" spans="1:242" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:245" x14ac:dyDescent="0.25">
       <c r="BI2"/>
       <c r="CY2"/>
       <c r="CZ2"/>
-      <c r="GV2"/>
-    </row>
-    <row r="3" spans="1:242" x14ac:dyDescent="0.25">
+      <c r="GY2"/>
+    </row>
+    <row r="3" spans="1:245" x14ac:dyDescent="0.25">
       <c r="BI3"/>
       <c r="CY3"/>
       <c r="CZ3"/>
-      <c r="GV3"/>
-    </row>
-    <row r="4" spans="1:242" x14ac:dyDescent="0.25">
+      <c r="GY3"/>
+    </row>
+    <row r="4" spans="1:245" x14ac:dyDescent="0.25">
       <c r="BI4"/>
       <c r="CY4"/>
       <c r="CZ4"/>
-      <c r="GV4"/>
-    </row>
-    <row r="5" spans="1:242" x14ac:dyDescent="0.25">
+      <c r="GY4"/>
+    </row>
+    <row r="5" spans="1:245" x14ac:dyDescent="0.25">
       <c r="BI5"/>
       <c r="CY5"/>
       <c r="CZ5"/>
-      <c r="GV5"/>
-    </row>
-    <row r="6" spans="1:242" x14ac:dyDescent="0.25">
+      <c r="GY5"/>
+    </row>
+    <row r="6" spans="1:245" x14ac:dyDescent="0.25">
       <c r="BI6"/>
       <c r="CY6"/>
       <c r="CZ6"/>
-      <c r="GV6"/>
-    </row>
-    <row r="7" spans="1:242" x14ac:dyDescent="0.25">
+      <c r="GY6"/>
+    </row>
+    <row r="7" spans="1:245" x14ac:dyDescent="0.25">
       <c r="BI7"/>
       <c r="CY7"/>
       <c r="CZ7"/>
-      <c r="GV7"/>
-    </row>
-    <row r="8" spans="1:242" x14ac:dyDescent="0.25">
+      <c r="GY7"/>
+    </row>
+    <row r="8" spans="1:245" x14ac:dyDescent="0.25">
       <c r="BI8"/>
       <c r="CY8"/>
       <c r="CZ8"/>
-      <c r="GV8"/>
-    </row>
-    <row r="9" spans="1:242" x14ac:dyDescent="0.25">
+      <c r="GY8"/>
+    </row>
+    <row r="9" spans="1:245" x14ac:dyDescent="0.25">
       <c r="BI9"/>
       <c r="CY9"/>
       <c r="CZ9"/>
-      <c r="GV9"/>
-    </row>
-    <row r="10" spans="1:242" x14ac:dyDescent="0.25">
+      <c r="GY9"/>
+    </row>
+    <row r="10" spans="1:245" x14ac:dyDescent="0.25">
       <c r="BI10"/>
       <c r="CY10"/>
       <c r="CZ10"/>
-      <c r="GV10"/>
-    </row>
-    <row r="11" spans="1:242" x14ac:dyDescent="0.25">
+      <c r="GY10"/>
+    </row>
+    <row r="11" spans="1:245" x14ac:dyDescent="0.25">
       <c r="BI11"/>
       <c r="CY11"/>
       <c r="CZ11"/>
-      <c r="GV11"/>
-    </row>
-    <row r="12" spans="1:242" x14ac:dyDescent="0.25">
+      <c r="GY11"/>
+    </row>
+    <row r="12" spans="1:245" x14ac:dyDescent="0.25">
       <c r="BI12"/>
       <c r="CY12"/>
       <c r="CZ12"/>
-      <c r="GV12"/>
-    </row>
-    <row r="13" spans="1:242" x14ac:dyDescent="0.25">
+      <c r="GY12"/>
+    </row>
+    <row r="13" spans="1:245" x14ac:dyDescent="0.25">
       <c r="BI13"/>
       <c r="CY13"/>
       <c r="CZ13"/>
-      <c r="GV13"/>
-    </row>
-    <row r="14" spans="1:242" x14ac:dyDescent="0.25">
+      <c r="GY13"/>
+    </row>
+    <row r="14" spans="1:245" x14ac:dyDescent="0.25">
       <c r="BI14"/>
       <c r="CY14"/>
       <c r="CZ14"/>
-      <c r="GV14"/>
-    </row>
-    <row r="15" spans="1:242" x14ac:dyDescent="0.25">
+      <c r="GY14"/>
+    </row>
+    <row r="15" spans="1:245" x14ac:dyDescent="0.25">
       <c r="BI15"/>
       <c r="CY15"/>
       <c r="CZ15"/>
-      <c r="GV15"/>
-    </row>
-    <row r="16" spans="1:242" x14ac:dyDescent="0.25">
+      <c r="GY15"/>
+    </row>
+    <row r="16" spans="1:245" x14ac:dyDescent="0.25">
       <c r="BI16"/>
       <c r="CY16"/>
       <c r="CZ16"/>
-      <c r="GV16"/>
-    </row>
-    <row r="17" spans="61:204" x14ac:dyDescent="0.25">
+      <c r="GY16"/>
+    </row>
+    <row r="17" spans="61:207" x14ac:dyDescent="0.25">
       <c r="BI17"/>
       <c r="CY17"/>
       <c r="CZ17"/>
-      <c r="GV17"/>
-    </row>
-    <row r="18" spans="61:204" x14ac:dyDescent="0.25">
+      <c r="GY17"/>
+    </row>
+    <row r="18" spans="61:207" x14ac:dyDescent="0.25">
       <c r="BI18"/>
       <c r="CY18"/>
       <c r="CZ18"/>
-      <c r="GV18"/>
-    </row>
-    <row r="19" spans="61:204" x14ac:dyDescent="0.25">
+      <c r="GY18"/>
+    </row>
+    <row r="19" spans="61:207" x14ac:dyDescent="0.25">
       <c r="BI19"/>
       <c r="CY19"/>
       <c r="CZ19"/>
-      <c r="GV19"/>
-    </row>
-    <row r="20" spans="61:204" x14ac:dyDescent="0.25">
+      <c r="GY19"/>
+    </row>
+    <row r="20" spans="61:207" x14ac:dyDescent="0.25">
       <c r="BI20"/>
       <c r="CY20"/>
       <c r="CZ20"/>
-      <c r="GV20"/>
-    </row>
-    <row r="21" spans="61:204" x14ac:dyDescent="0.25">
+      <c r="GY20"/>
+    </row>
+    <row r="21" spans="61:207" x14ac:dyDescent="0.25">
       <c r="BI21"/>
       <c r="CY21"/>
       <c r="CZ21"/>
-      <c r="GV21"/>
-    </row>
-    <row r="22" spans="61:204" x14ac:dyDescent="0.25">
+      <c r="GY21"/>
+    </row>
+    <row r="22" spans="61:207" x14ac:dyDescent="0.25">
       <c r="BI22"/>
       <c r="CY22"/>
       <c r="CZ22"/>
-      <c r="GV22"/>
-    </row>
-    <row r="23" spans="61:204" x14ac:dyDescent="0.25">
+      <c r="GY22"/>
+    </row>
+    <row r="23" spans="61:207" x14ac:dyDescent="0.25">
       <c r="BI23"/>
       <c r="CY23"/>
       <c r="CZ23"/>
-      <c r="GV23"/>
-    </row>
-    <row r="24" spans="61:204" x14ac:dyDescent="0.25">
+      <c r="GY23"/>
+    </row>
+    <row r="24" spans="61:207" x14ac:dyDescent="0.25">
       <c r="BI24"/>
       <c r="CY24"/>
       <c r="CZ24"/>
-      <c r="GV24"/>
-    </row>
-    <row r="25" spans="61:204" x14ac:dyDescent="0.25">
+      <c r="GY24"/>
+    </row>
+    <row r="25" spans="61:207" x14ac:dyDescent="0.25">
       <c r="BI25"/>
       <c r="CY25"/>
       <c r="CZ25"/>
-      <c r="GV25"/>
-    </row>
-    <row r="26" spans="61:204" x14ac:dyDescent="0.25">
+      <c r="GY25"/>
+    </row>
+    <row r="26" spans="61:207" x14ac:dyDescent="0.25">
       <c r="BI26"/>
       <c r="CY26"/>
       <c r="CZ26"/>
-      <c r="GV26"/>
-    </row>
-    <row r="27" spans="61:204" x14ac:dyDescent="0.25">
+      <c r="GY26"/>
+    </row>
+    <row r="27" spans="61:207" x14ac:dyDescent="0.25">
       <c r="BI27"/>
       <c r="CY27"/>
       <c r="CZ27"/>
-      <c r="GV27"/>
-    </row>
-    <row r="28" spans="61:204" x14ac:dyDescent="0.25">
+      <c r="GY27"/>
+    </row>
+    <row r="28" spans="61:207" x14ac:dyDescent="0.25">
       <c r="BI28"/>
       <c r="CY28"/>
       <c r="CZ28"/>
-      <c r="GV28"/>
-    </row>
-    <row r="29" spans="61:204" x14ac:dyDescent="0.25">
+      <c r="GY28"/>
+    </row>
+    <row r="29" spans="61:207" x14ac:dyDescent="0.25">
       <c r="BI29"/>
       <c r="CY29"/>
       <c r="CZ29"/>
-      <c r="GV29"/>
-    </row>
-    <row r="30" spans="61:204" x14ac:dyDescent="0.25">
+      <c r="GY29"/>
+    </row>
+    <row r="30" spans="61:207" x14ac:dyDescent="0.25">
       <c r="BI30"/>
       <c r="CY30"/>
       <c r="CZ30"/>
-      <c r="GV30"/>
-    </row>
-    <row r="31" spans="61:204" x14ac:dyDescent="0.25">
+      <c r="GY30"/>
+    </row>
+    <row r="31" spans="61:207" x14ac:dyDescent="0.25">
       <c r="BI31"/>
       <c r="CY31"/>
       <c r="CZ31"/>
-      <c r="GV31"/>
-    </row>
-    <row r="32" spans="61:204" x14ac:dyDescent="0.25">
+      <c r="GY31"/>
+    </row>
+    <row r="32" spans="61:207" x14ac:dyDescent="0.25">
       <c r="BI32"/>
       <c r="CY32"/>
       <c r="CZ32"/>
-      <c r="GV32"/>
-    </row>
-    <row r="33" spans="61:204" x14ac:dyDescent="0.25">
+      <c r="GY32"/>
+    </row>
+    <row r="33" spans="61:207" x14ac:dyDescent="0.25">
       <c r="BI33"/>
       <c r="CY33"/>
       <c r="CZ33"/>
-      <c r="GV33"/>
-    </row>
-    <row r="34" spans="61:204" x14ac:dyDescent="0.25">
+      <c r="GY33"/>
+    </row>
+    <row r="34" spans="61:207" x14ac:dyDescent="0.25">
       <c r="BI34"/>
       <c r="CY34"/>
       <c r="CZ34"/>
-      <c r="GV34"/>
-    </row>
-    <row r="35" spans="61:204" x14ac:dyDescent="0.25">
+      <c r="GY34"/>
+    </row>
+    <row r="35" spans="61:207" x14ac:dyDescent="0.25">
       <c r="BI35"/>
       <c r="CY35"/>
       <c r="CZ35"/>
-      <c r="GV35"/>
-    </row>
-    <row r="36" spans="61:204" x14ac:dyDescent="0.25">
+      <c r="GY35"/>
+    </row>
+    <row r="36" spans="61:207" x14ac:dyDescent="0.25">
       <c r="BI36"/>
       <c r="CY36"/>
       <c r="CZ36"/>
-      <c r="GV36"/>
-    </row>
-    <row r="37" spans="61:204" x14ac:dyDescent="0.25">
+      <c r="GY36"/>
+    </row>
+    <row r="37" spans="61:207" x14ac:dyDescent="0.25">
       <c r="BI37"/>
       <c r="CY37"/>
       <c r="CZ37"/>
-      <c r="GV37"/>
-    </row>
-    <row r="38" spans="61:204" x14ac:dyDescent="0.25">
+      <c r="GY37"/>
+    </row>
+    <row r="38" spans="61:207" x14ac:dyDescent="0.25">
       <c r="BI38"/>
       <c r="CY38"/>
       <c r="CZ38"/>
-      <c r="GV38"/>
-    </row>
-    <row r="39" spans="61:204" x14ac:dyDescent="0.25">
+      <c r="GY38"/>
+    </row>
+    <row r="39" spans="61:207" x14ac:dyDescent="0.25">
       <c r="BI39"/>
       <c r="CY39"/>
       <c r="CZ39"/>
-      <c r="GV39"/>
+      <c r="GY39"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Template/Export/Sari_Cases_15.xlsx
+++ b/Template/Export/Sari_Cases_15.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Template\Export\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADE96009-0299-46B5-9810-B1AB84648F66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F69B5275-02D8-4FCA-945C-085C399F9BBC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1327,9 +1327,9 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:JR1684"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="EQ1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="EZ2" sqref="EZ2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
